--- a/results/2012_reps_by_priority.xlsx
+++ b/results/2012_reps_by_priority.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F14F57E-12EF-4E45-A291-5E18510FD889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FC0AC4-FEC3-194F-BB94-5605C1C8A74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27260" windowHeight="16940" xr2:uid="{F43BD5BF-1917-8F4C-A94A-1C3F14CB937D}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_2012_reps_by_priority" localSheetId="0">Sheet1!$A$1:$F$167</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{BCAF91A6-C0E4-4A48-A16D-6FECCDE14951}" name="2012_reps_by_priority" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2012_reps_by_priority.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2012_reps_by_priority.csv" comma="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -281,13 +281,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -614,7 +612,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K170" sqref="K170"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,19 +662,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>435</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="H2" s="6">
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="H2" s="4">
         <v>0.50849999999999995</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <v>201</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <f>ROUND(A2*H$2,0) -I2</f>
         <v>20</v>
       </c>
@@ -707,7 +705,7 @@
         <f>IF(E3="DEM",I2+1, I2)</f>
         <v>202</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <f t="shared" ref="J3:J66" si="0">ROUND(A3*H$2,0) -I3</f>
         <v>20</v>
       </c>
@@ -739,7 +737,7 @@
         <f t="shared" ref="I4:I67" si="1">IF(E4="DEM",I3+1, I3)</f>
         <v>203</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -771,7 +769,7 @@
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -803,7 +801,7 @@
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -835,7 +833,7 @@
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -867,7 +865,7 @@
         <f t="shared" si="1"/>
         <v>206</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -899,7 +897,7 @@
         <f t="shared" si="1"/>
         <v>206</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -931,7 +929,7 @@
         <f t="shared" si="1"/>
         <v>207</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -963,7 +961,7 @@
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -995,7 +993,7 @@
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1027,7 +1025,7 @@
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1059,7 +1057,7 @@
         <f t="shared" si="1"/>
         <v>209</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1091,7 +1089,7 @@
         <f t="shared" si="1"/>
         <v>209</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1123,7 +1121,7 @@
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1155,7 +1153,7 @@
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1187,7 +1185,7 @@
         <f t="shared" si="1"/>
         <v>212</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1219,7 +1217,7 @@
         <f t="shared" si="1"/>
         <v>213</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1251,7 +1249,7 @@
         <f t="shared" si="1"/>
         <v>213</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1283,7 +1281,7 @@
         <f t="shared" si="1"/>
         <v>214</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1315,7 +1313,7 @@
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1347,7 +1345,7 @@
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1379,7 +1377,7 @@
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1411,7 +1409,7 @@
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1443,7 +1441,7 @@
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1475,7 +1473,7 @@
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1507,7 +1505,7 @@
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1539,7 +1537,7 @@
         <f t="shared" si="1"/>
         <v>218</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1571,7 +1569,7 @@
         <f t="shared" si="1"/>
         <v>219</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1603,7 +1601,7 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1635,7 +1633,7 @@
         <f t="shared" si="1"/>
         <v>221</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1667,7 +1665,7 @@
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1699,7 +1697,7 @@
         <f t="shared" si="1"/>
         <v>223</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1731,7 +1729,7 @@
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1763,7 +1761,7 @@
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1795,7 +1793,7 @@
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1827,7 +1825,7 @@
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1859,7 +1857,7 @@
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1891,7 +1889,7 @@
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1923,7 +1921,7 @@
         <f t="shared" si="1"/>
         <v>227</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1955,7 +1953,7 @@
         <f t="shared" si="1"/>
         <v>227</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1987,7 +1985,7 @@
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2019,7 +2017,7 @@
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2051,7 +2049,7 @@
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2083,7 +2081,7 @@
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2115,7 +2113,7 @@
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2147,7 +2145,7 @@
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2179,7 +2177,7 @@
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2211,7 +2209,7 @@
         <f t="shared" si="1"/>
         <v>233</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2243,7 +2241,7 @@
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2275,7 +2273,7 @@
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2307,7 +2305,7 @@
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -2339,7 +2337,7 @@
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2371,7 +2369,7 @@
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2403,7 +2401,7 @@
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2435,7 +2433,7 @@
         <f t="shared" si="1"/>
         <v>237</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2467,7 +2465,7 @@
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2499,7 +2497,7 @@
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2531,7 +2529,7 @@
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2563,7 +2561,7 @@
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2595,7 +2593,7 @@
         <f t="shared" si="1"/>
         <v>239</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2627,7 +2625,7 @@
         <f t="shared" si="1"/>
         <v>239</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J63">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2659,7 +2657,7 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="J64" s="4">
+      <c r="J64">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2691,7 +2689,7 @@
         <f t="shared" si="1"/>
         <v>241</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J65">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2723,7 +2721,7 @@
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
-      <c r="J66" s="4">
+      <c r="J66">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2755,7 +2753,7 @@
         <f t="shared" si="1"/>
         <v>243</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J67">
         <f t="shared" ref="J67:J130" si="3">ROUND(A67*H$2,0) -I67</f>
         <v>11</v>
       </c>
@@ -2787,7 +2785,7 @@
         <f t="shared" ref="I68:I131" si="4">IF(E68="DEM",I67+1, I67)</f>
         <v>244</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J68">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -2819,7 +2817,7 @@
         <f t="shared" si="4"/>
         <v>245</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J69">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -2851,7 +2849,7 @@
         <f t="shared" si="4"/>
         <v>246</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J70">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -2883,7 +2881,7 @@
         <f t="shared" si="4"/>
         <v>246</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J71">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -2915,7 +2913,7 @@
         <f t="shared" si="4"/>
         <v>247</v>
       </c>
-      <c r="J72" s="4">
+      <c r="J72">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -2947,7 +2945,7 @@
         <f t="shared" si="4"/>
         <v>247</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J73">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -2979,7 +2977,7 @@
         <f t="shared" si="4"/>
         <v>247</v>
       </c>
-      <c r="J74" s="4">
+      <c r="J74">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -3011,7 +3009,7 @@
         <f t="shared" si="4"/>
         <v>248</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J75">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -3043,7 +3041,7 @@
         <f t="shared" si="4"/>
         <v>249</v>
       </c>
-      <c r="J76" s="4">
+      <c r="J76">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -3075,7 +3073,7 @@
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J77">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -3107,7 +3105,7 @@
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J78">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -3139,7 +3137,7 @@
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J79">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -3171,7 +3169,7 @@
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J80">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -3203,7 +3201,7 @@
         <f t="shared" si="4"/>
         <v>251</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J81">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -3235,7 +3233,7 @@
         <f t="shared" si="4"/>
         <v>252</v>
       </c>
-      <c r="J82" s="4">
+      <c r="J82">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -3267,7 +3265,7 @@
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J83">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -3299,7 +3297,7 @@
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="J84" s="4">
+      <c r="J84">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -3331,7 +3329,7 @@
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J85">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -3363,7 +3361,7 @@
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="J86" s="4">
+      <c r="J86">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -3395,7 +3393,7 @@
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="J87" s="4">
+      <c r="J87">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -3427,7 +3425,7 @@
         <f t="shared" si="4"/>
         <v>254</v>
       </c>
-      <c r="J88" s="4">
+      <c r="J88">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -3459,7 +3457,7 @@
         <f t="shared" si="4"/>
         <v>254</v>
       </c>
-      <c r="J89" s="4">
+      <c r="J89">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -3491,7 +3489,7 @@
         <f t="shared" si="4"/>
         <v>254</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J90">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -3523,7 +3521,7 @@
         <f t="shared" si="4"/>
         <v>254</v>
       </c>
-      <c r="J91" s="4">
+      <c r="J91">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -3555,7 +3553,7 @@
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="J92" s="4">
+      <c r="J92">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -3587,7 +3585,7 @@
         <f t="shared" si="4"/>
         <v>256</v>
       </c>
-      <c r="J93" s="4">
+      <c r="J93">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -3619,7 +3617,7 @@
         <f t="shared" si="4"/>
         <v>257</v>
       </c>
-      <c r="J94" s="4">
+      <c r="J94">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -3651,7 +3649,7 @@
         <f t="shared" si="4"/>
         <v>257</v>
       </c>
-      <c r="J95" s="4">
+      <c r="J95">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -3683,7 +3681,7 @@
         <f t="shared" si="4"/>
         <v>257</v>
       </c>
-      <c r="J96" s="4">
+      <c r="J96">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -3715,7 +3713,7 @@
         <f t="shared" si="4"/>
         <v>258</v>
       </c>
-      <c r="J97" s="4">
+      <c r="J97">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -3747,7 +3745,7 @@
         <f t="shared" si="4"/>
         <v>259</v>
       </c>
-      <c r="J98" s="4">
+      <c r="J98">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -3779,7 +3777,7 @@
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
-      <c r="J99" s="4">
+      <c r="J99">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -3811,7 +3809,7 @@
         <f t="shared" si="4"/>
         <v>261</v>
       </c>
-      <c r="J100" s="4">
+      <c r="J100">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -3843,7 +3841,7 @@
         <f t="shared" si="4"/>
         <v>262</v>
       </c>
-      <c r="J101" s="4">
+      <c r="J101">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -3875,7 +3873,7 @@
         <f t="shared" si="4"/>
         <v>263</v>
       </c>
-      <c r="J102" s="4">
+      <c r="J102">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -3907,7 +3905,7 @@
         <f t="shared" si="4"/>
         <v>264</v>
       </c>
-      <c r="J103" s="4">
+      <c r="J103">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -3939,7 +3937,7 @@
         <f t="shared" si="4"/>
         <v>264</v>
       </c>
-      <c r="J104" s="4">
+      <c r="J104">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -3971,7 +3969,7 @@
         <f t="shared" si="4"/>
         <v>265</v>
       </c>
-      <c r="J105" s="4">
+      <c r="J105">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -4003,7 +4001,7 @@
         <f t="shared" si="4"/>
         <v>266</v>
       </c>
-      <c r="J106" s="4">
+      <c r="J106">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -4035,7 +4033,7 @@
         <f t="shared" si="4"/>
         <v>266</v>
       </c>
-      <c r="J107" s="4">
+      <c r="J107">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -4067,7 +4065,7 @@
         <f t="shared" si="4"/>
         <v>267</v>
       </c>
-      <c r="J108" s="4">
+      <c r="J108">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -4099,7 +4097,7 @@
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
-      <c r="J109" s="4">
+      <c r="J109">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -4131,7 +4129,7 @@
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
-      <c r="J110" s="4">
+      <c r="J110">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -4163,7 +4161,7 @@
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
-      <c r="J111" s="4">
+      <c r="J111">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -4195,7 +4193,7 @@
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
-      <c r="J112" s="4">
+      <c r="J112">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4227,7 +4225,7 @@
         <f t="shared" si="4"/>
         <v>271</v>
       </c>
-      <c r="J113" s="4">
+      <c r="J113">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4259,7 +4257,7 @@
         <f t="shared" si="4"/>
         <v>272</v>
       </c>
-      <c r="J114" s="4">
+      <c r="J114">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -4291,7 +4289,7 @@
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
-      <c r="J115" s="4">
+      <c r="J115">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -4323,7 +4321,7 @@
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
-      <c r="J116" s="4">
+      <c r="J116">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -4355,7 +4353,7 @@
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
-      <c r="J117" s="4">
+      <c r="J117">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -4387,7 +4385,7 @@
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
-      <c r="J118" s="4">
+      <c r="J118">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -4419,7 +4417,7 @@
         <f t="shared" si="4"/>
         <v>275</v>
       </c>
-      <c r="J119" s="4">
+      <c r="J119">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -4451,7 +4449,7 @@
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
-      <c r="J120" s="4">
+      <c r="J120">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -4483,7 +4481,7 @@
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
-      <c r="J121" s="4">
+      <c r="J121">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -4515,7 +4513,7 @@
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
-      <c r="J122" s="4">
+      <c r="J122">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -4547,7 +4545,7 @@
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
-      <c r="J123" s="4">
+      <c r="J123">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4579,7 +4577,7 @@
         <f t="shared" si="4"/>
         <v>277</v>
       </c>
-      <c r="J124" s="4">
+      <c r="J124">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -4611,7 +4609,7 @@
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
-      <c r="J125" s="4">
+      <c r="J125">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -4643,7 +4641,7 @@
         <f t="shared" si="4"/>
         <v>279</v>
       </c>
-      <c r="J126" s="4">
+      <c r="J126">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -4675,7 +4673,7 @@
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="J127" s="4">
+      <c r="J127">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -4707,7 +4705,7 @@
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="J128" s="4">
+      <c r="J128">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -4739,7 +4737,7 @@
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="J129" s="4">
+      <c r="J129">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -4771,7 +4769,7 @@
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="J130" s="4">
+      <c r="J130">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -4803,7 +4801,7 @@
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="J131" s="4">
+      <c r="J131">
         <f t="shared" ref="J131:J167" si="6">ROUND(A131*H$2,0) -I131</f>
         <v>7</v>
       </c>
@@ -4835,7 +4833,7 @@
         <f t="shared" ref="I132:I167" si="7">IF(E132="DEM",I131+1, I131)</f>
         <v>281</v>
       </c>
-      <c r="J132" s="4">
+      <c r="J132">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -4867,7 +4865,7 @@
         <f t="shared" si="7"/>
         <v>281</v>
       </c>
-      <c r="J133" s="4">
+      <c r="J133">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -4899,7 +4897,7 @@
         <f t="shared" si="7"/>
         <v>282</v>
       </c>
-      <c r="J134" s="4">
+      <c r="J134">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -4931,7 +4929,7 @@
         <f t="shared" si="7"/>
         <v>283</v>
       </c>
-      <c r="J135" s="4">
+      <c r="J135">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -4963,7 +4961,7 @@
         <f t="shared" si="7"/>
         <v>283</v>
       </c>
-      <c r="J136" s="4">
+      <c r="J136">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -4995,7 +4993,7 @@
         <f t="shared" si="7"/>
         <v>284</v>
       </c>
-      <c r="J137" s="4">
+      <c r="J137">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -5027,7 +5025,7 @@
         <f t="shared" si="7"/>
         <v>284</v>
       </c>
-      <c r="J138" s="4">
+      <c r="J138">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -5059,7 +5057,7 @@
         <f t="shared" si="7"/>
         <v>285</v>
       </c>
-      <c r="J139" s="4">
+      <c r="J139">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -5091,7 +5089,7 @@
         <f t="shared" si="7"/>
         <v>286</v>
       </c>
-      <c r="J140" s="4">
+      <c r="J140">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -5123,7 +5121,7 @@
         <f t="shared" si="7"/>
         <v>287</v>
       </c>
-      <c r="J141" s="4">
+      <c r="J141">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -5155,7 +5153,7 @@
         <f t="shared" si="7"/>
         <v>287</v>
       </c>
-      <c r="J142" s="4">
+      <c r="J142">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -5187,7 +5185,7 @@
         <f t="shared" si="7"/>
         <v>288</v>
       </c>
-      <c r="J143" s="4">
+      <c r="J143">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -5219,7 +5217,7 @@
         <f t="shared" si="7"/>
         <v>288</v>
       </c>
-      <c r="J144" s="4">
+      <c r="J144">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -5251,7 +5249,7 @@
         <f t="shared" si="7"/>
         <v>289</v>
       </c>
-      <c r="J145" s="4">
+      <c r="J145">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -5283,7 +5281,7 @@
         <f t="shared" si="7"/>
         <v>289</v>
       </c>
-      <c r="J146" s="4">
+      <c r="J146">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -5315,7 +5313,7 @@
         <f t="shared" si="7"/>
         <v>290</v>
       </c>
-      <c r="J147" s="4">
+      <c r="J147">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -5347,7 +5345,7 @@
         <f t="shared" si="7"/>
         <v>291</v>
       </c>
-      <c r="J148" s="4">
+      <c r="J148">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -5379,7 +5377,7 @@
         <f t="shared" si="7"/>
         <v>291</v>
       </c>
-      <c r="J149" s="4">
+      <c r="J149">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -5411,7 +5409,7 @@
         <f t="shared" si="7"/>
         <v>292</v>
       </c>
-      <c r="J150" s="4">
+      <c r="J150">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -5443,7 +5441,7 @@
         <f t="shared" si="7"/>
         <v>293</v>
       </c>
-      <c r="J151" s="4">
+      <c r="J151">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -5475,7 +5473,7 @@
         <f t="shared" si="7"/>
         <v>293</v>
       </c>
-      <c r="J152" s="4">
+      <c r="J152">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -5507,7 +5505,7 @@
         <f t="shared" si="7"/>
         <v>294</v>
       </c>
-      <c r="J153" s="4">
+      <c r="J153">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -5539,7 +5537,7 @@
         <f t="shared" si="7"/>
         <v>295</v>
       </c>
-      <c r="J154" s="4">
+      <c r="J154">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -5571,7 +5569,7 @@
         <f t="shared" si="7"/>
         <v>296</v>
       </c>
-      <c r="J155" s="4">
+      <c r="J155">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -5603,7 +5601,7 @@
         <f t="shared" si="7"/>
         <v>296</v>
       </c>
-      <c r="J156" s="4">
+      <c r="J156">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -5635,7 +5633,7 @@
         <f t="shared" si="7"/>
         <v>297</v>
       </c>
-      <c r="J157" s="4">
+      <c r="J157">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -5667,7 +5665,7 @@
         <f t="shared" si="7"/>
         <v>297</v>
       </c>
-      <c r="J158" s="4">
+      <c r="J158">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -5699,7 +5697,7 @@
         <f t="shared" si="7"/>
         <v>298</v>
       </c>
-      <c r="J159" s="4">
+      <c r="J159">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -5731,7 +5729,7 @@
         <f t="shared" si="7"/>
         <v>299</v>
       </c>
-      <c r="J160" s="4">
+      <c r="J160">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -5763,7 +5761,7 @@
         <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="J161" s="4">
+      <c r="J161">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
@@ -5795,7 +5793,7 @@
         <f t="shared" si="7"/>
         <v>301</v>
       </c>
-      <c r="J162" s="4">
+      <c r="J162">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
@@ -5827,7 +5825,7 @@
         <f t="shared" si="7"/>
         <v>302</v>
       </c>
-      <c r="J163" s="4">
+      <c r="J163">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -5859,7 +5857,7 @@
         <f t="shared" si="7"/>
         <v>303</v>
       </c>
-      <c r="J164" s="4">
+      <c r="J164">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -5891,7 +5889,7 @@
         <f t="shared" si="7"/>
         <v>303</v>
       </c>
-      <c r="J165" s="4">
+      <c r="J165">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -5923,7 +5921,7 @@
         <f t="shared" si="7"/>
         <v>304</v>
       </c>
-      <c r="J166" s="4">
+      <c r="J166">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -5955,7 +5953,7 @@
         <f t="shared" si="7"/>
         <v>305</v>
       </c>
-      <c r="J167" s="4">
+      <c r="J167">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>

--- a/results/2012_reps_by_priority.xlsx
+++ b/results/2012_reps_by_priority.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B256AD-8CC4-3F4C-962B-E282BE0522C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135F4520-655D-8D44-8F2C-DEE81C807D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27260" windowHeight="16940" xr2:uid="{F43BD5BF-1917-8F4C-A94A-1C3F14CB937D}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="27300" windowHeight="16940" xr2:uid="{F0D65BD7-8776-0344-8DB6-69A96A32B4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_2012_reps_by_priority" localSheetId="0">Sheet1!$A$2:$F$168</definedName>
+    <definedName name="_2012_reps_by_priority" localSheetId="0">Sheet1!$A$2:$F$170</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,8 +40,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{BCAF91A6-C0E4-4A48-A16D-6FECCDE14951}" name="2012_reps_by_priority" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2012_reps_by_priority.csv" comma="1">
+  <connection id="1" xr16:uid="{FD590F6A-6FBD-4B41-A7EB-719BE2ADAA66}" name="2012_reps_by_priority" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2012_reps_by_priority.csv" comma="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="60">
   <si>
     <t>HOUSE SEAT</t>
   </si>
@@ -217,25 +217,25 @@
     <t>NE</t>
   </si>
   <si>
-    <t>D's got 50.85% of the vote and won 201 of 435 seats yielding a gap of +20 seats.</t>
+    <t>RESULTS</t>
+  </si>
+  <si>
+    <t>VERIFICATION</t>
+  </si>
+  <si>
+    <t>Δ</t>
+  </si>
+  <si>
+    <t>D %</t>
   </si>
   <si>
     <t>D #</t>
   </si>
   <si>
-    <t>D %</t>
-  </si>
-  <si>
     <t>Gap</t>
   </si>
   <si>
-    <t>Δ</t>
-  </si>
-  <si>
-    <t>VERIFICATION</t>
-  </si>
-  <si>
-    <t>RESULTS</t>
+    <t>D's got 50.85% of the vote and won 201 of 435 seats yielding a gap of +20 seats.</t>
   </si>
 </sst>
 </file>
@@ -300,12 +300,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2012_reps_by_priority" connectionId="1" xr16:uid="{E8B0B5C4-9961-BF4C-B451-6C087437F378}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2012_reps_by_priority" connectionId="1" xr16:uid="{A029B8F1-BE34-304F-8377-809C15D218DE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,14 +624,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623742A8-339E-8D40-ADB1-987A6D75DAF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB13DF8-3993-D545-AFFA-E7602D7E3E91}">
   <dimension ref="A1:M170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5:G168"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I169" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,7 +642,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.83203125" customWidth="1"/>
     <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -652,11 +652,11 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="H1" s="4"/>
       <c r="J1" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -666,33 +666,33 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -701,8 +701,8 @@
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4">
+      <c r="H3" s="4"/>
+      <c r="I3" s="8">
         <v>0.50849999999999995</v>
       </c>
       <c r="J3">
@@ -713,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -735,17 +735,17 @@
       <c r="F4">
         <v>20</v>
       </c>
-      <c r="G4" s="7" t="str">
+      <c r="G4" s="3" t="str">
         <f>IF((F4-K3)&lt;&gt;0,F4-K3,"")</f>
         <v/>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="4"/>
       <c r="J4">
         <f>IF(E4="DEM",J3+1, J3)</f>
         <v>202</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K67" si="0">ROUND(A4*I$3,0) -J4</f>
+        <f t="shared" ref="K4:K6" si="0">ROUND(A4*I$3,0) -J4</f>
         <v>20</v>
       </c>
       <c r="L4">
@@ -772,13 +772,13 @@
       <c r="F5">
         <v>19</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <f>IF((F5-F4)&lt;&gt;0,F5-F4,"")</f>
         <v>-1</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="4"/>
       <c r="J5">
-        <f t="shared" ref="J5:J68" si="1">IF(E5="DEM",J4+1, J4)</f>
+        <f t="shared" ref="J5:J6" si="1">IF(E5="DEM",J4+1, J4)</f>
         <v>203</v>
       </c>
       <c r="K5">
@@ -786,7 +786,7 @@
         <v>19</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L68" si="2">K5-F5</f>
+        <f t="shared" ref="L5:L6" si="2">K5-F5</f>
         <v>0</v>
       </c>
     </row>
@@ -809,11 +809,11 @@
       <c r="F6">
         <v>20</v>
       </c>
-      <c r="G6" s="7">
-        <f t="shared" ref="G6:G69" si="3">IF((F6-F5)&lt;&gt;0,F6-F5,"")</f>
+      <c r="G6" s="3">
+        <f t="shared" ref="G6" si="3">IF((F6-F5)&lt;&gt;0,F6-F5,"")</f>
         <v>1</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="4"/>
       <c r="J6">
         <f t="shared" si="1"/>
         <v>203</v>
@@ -846,21 +846,21 @@
       <c r="F7">
         <v>19</v>
       </c>
-      <c r="G7" s="7">
-        <f t="shared" si="3"/>
+      <c r="G7" s="3">
+        <f t="shared" ref="G7:G70" si="4">IF((F7-F6)&lt;&gt;0,F7-F6,"")</f>
         <v>-1</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="4"/>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J7:J70" si="5">IF(E7="DEM",J6+1, J6)</f>
         <v>204</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K7:K70" si="6">ROUND(A7*I$3,0) -J7</f>
         <v>19</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L7:L70" si="7">K7-F7</f>
         <v>0</v>
       </c>
     </row>
@@ -883,21 +883,21 @@
       <c r="F8">
         <v>19</v>
       </c>
-      <c r="G8" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H8" s="5"/>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H8" s="4"/>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>205</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -920,21 +920,21 @@
       <c r="F9">
         <v>18</v>
       </c>
-      <c r="G9" s="7">
-        <f t="shared" si="3"/>
+      <c r="G9" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="4"/>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>206</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -957,21 +957,21 @@
       <c r="F10">
         <v>19</v>
       </c>
-      <c r="G10" s="7">
-        <f t="shared" si="3"/>
+      <c r="G10" s="3">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="4"/>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>206</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -994,21 +994,21 @@
       <c r="F11">
         <v>18</v>
       </c>
-      <c r="G11" s="7">
-        <f t="shared" si="3"/>
+      <c r="G11" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="4"/>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>207</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1031,21 +1031,21 @@
       <c r="F12">
         <v>18</v>
       </c>
-      <c r="G12" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H12" s="5"/>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H12" s="4"/>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>208</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1068,21 +1068,21 @@
       <c r="F13">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H13" s="5"/>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H13" s="4"/>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>208</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1105,21 +1105,21 @@
       <c r="F14">
         <v>19</v>
       </c>
-      <c r="G14" s="7">
-        <f t="shared" si="3"/>
+      <c r="G14" s="3">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="4"/>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>208</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1142,21 +1142,21 @@
       <c r="F15">
         <v>18</v>
       </c>
-      <c r="G15" s="7">
-        <f t="shared" si="3"/>
+      <c r="G15" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="4"/>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>209</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1179,21 +1179,21 @@
       <c r="F16">
         <v>19</v>
       </c>
-      <c r="G16" s="7">
-        <f t="shared" si="3"/>
+      <c r="G16" s="3">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="4"/>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>209</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1216,21 +1216,21 @@
       <c r="F17">
         <v>18</v>
       </c>
-      <c r="G17" s="7">
-        <f t="shared" si="3"/>
+      <c r="G17" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="4"/>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1253,21 +1253,21 @@
       <c r="F18">
         <v>18</v>
       </c>
-      <c r="G18" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H18" s="5"/>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H18" s="4"/>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>211</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1290,21 +1290,21 @@
       <c r="F19">
         <v>17</v>
       </c>
-      <c r="G19" s="7">
-        <f t="shared" si="3"/>
+      <c r="G19" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="4"/>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>212</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1327,21 +1327,21 @@
       <c r="F20">
         <v>17</v>
       </c>
-      <c r="G20" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H20" s="5"/>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H20" s="4"/>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>213</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1364,21 +1364,21 @@
       <c r="F21">
         <v>17</v>
       </c>
-      <c r="G21" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H21" s="5"/>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H21" s="4"/>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>213</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1401,21 +1401,21 @@
       <c r="F22">
         <v>17</v>
       </c>
-      <c r="G22" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H22" s="5"/>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H22" s="4"/>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>214</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1438,21 +1438,21 @@
       <c r="F23">
         <v>16</v>
       </c>
-      <c r="G23" s="7">
-        <f t="shared" si="3"/>
+      <c r="G23" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="4"/>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>215</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1475,21 +1475,21 @@
       <c r="F24">
         <v>17</v>
       </c>
-      <c r="G24" s="7">
-        <f t="shared" si="3"/>
+      <c r="G24" s="3">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="4"/>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>215</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1512,21 +1512,21 @@
       <c r="F25">
         <v>17</v>
       </c>
-      <c r="G25" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H25" s="5"/>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H25" s="4"/>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>215</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1549,21 +1549,21 @@
       <c r="F26">
         <v>18</v>
       </c>
-      <c r="G26" s="7">
-        <f t="shared" si="3"/>
+      <c r="G26" s="3">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="4"/>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>215</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1586,21 +1586,21 @@
       <c r="F27">
         <v>17</v>
       </c>
-      <c r="G27" s="7">
-        <f t="shared" si="3"/>
+      <c r="G27" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="4"/>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>216</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1623,21 +1623,21 @@
       <c r="F28">
         <v>17</v>
       </c>
-      <c r="G28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H28" s="5"/>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H28" s="4"/>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>217</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1660,21 +1660,21 @@
       <c r="F29">
         <v>17</v>
       </c>
-      <c r="G29" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H29" s="5"/>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H29" s="4"/>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>217</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1697,21 +1697,21 @@
       <c r="F30">
         <v>17</v>
       </c>
-      <c r="G30" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H30" s="5"/>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H30" s="4"/>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>218</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1734,21 +1734,21 @@
       <c r="F31">
         <v>16</v>
       </c>
-      <c r="G31" s="7">
-        <f t="shared" si="3"/>
+      <c r="G31" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="4"/>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>219</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1771,21 +1771,21 @@
       <c r="F32">
         <v>16</v>
       </c>
-      <c r="G32" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H32" s="5"/>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H32" s="4"/>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1808,21 +1808,21 @@
       <c r="F33">
         <v>15</v>
       </c>
-      <c r="G33" s="7">
-        <f t="shared" si="3"/>
+      <c r="G33" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33" s="4"/>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>221</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1845,21 +1845,21 @@
       <c r="F34">
         <v>15</v>
       </c>
-      <c r="G34" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H34" s="5"/>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H34" s="4"/>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>222</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1882,21 +1882,21 @@
       <c r="F35">
         <v>14</v>
       </c>
-      <c r="G35" s="7">
-        <f t="shared" si="3"/>
+      <c r="G35" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H35" s="5"/>
+      <c r="H35" s="4"/>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>223</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1919,21 +1919,21 @@
       <c r="F36">
         <v>14</v>
       </c>
-      <c r="G36" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H36" s="5"/>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H36" s="4"/>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>224</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1956,21 +1956,21 @@
       <c r="F37">
         <v>14</v>
       </c>
-      <c r="G37" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H37" s="5"/>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H37" s="4"/>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>224</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1993,21 +1993,21 @@
       <c r="F38">
         <v>14</v>
       </c>
-      <c r="G38" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H38" s="5"/>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H38" s="4"/>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2030,21 +2030,21 @@
       <c r="F39">
         <v>15</v>
       </c>
-      <c r="G39" s="7">
-        <f t="shared" si="3"/>
+      <c r="G39" s="3">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H39" s="5"/>
+      <c r="H39" s="4"/>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2067,21 +2067,21 @@
       <c r="F40">
         <v>15</v>
       </c>
-      <c r="G40" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H40" s="5"/>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H40" s="4"/>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2104,21 +2104,21 @@
       <c r="F41">
         <v>15</v>
       </c>
-      <c r="G41" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H41" s="5"/>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H41" s="4"/>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>226</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2141,21 +2141,21 @@
       <c r="F42">
         <v>14</v>
       </c>
-      <c r="G42" s="7">
-        <f t="shared" si="3"/>
+      <c r="G42" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H42" s="5"/>
+      <c r="H42" s="4"/>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>227</v>
       </c>
       <c r="K42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2178,21 +2178,21 @@
       <c r="F43">
         <v>15</v>
       </c>
-      <c r="G43" s="7">
-        <f t="shared" si="3"/>
+      <c r="G43" s="3">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H43" s="5"/>
+      <c r="H43" s="4"/>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>227</v>
       </c>
       <c r="K43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2215,21 +2215,21 @@
       <c r="F44">
         <v>14</v>
       </c>
-      <c r="G44" s="7">
-        <f t="shared" si="3"/>
+      <c r="G44" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H44" s="5"/>
+      <c r="H44" s="4"/>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>228</v>
       </c>
       <c r="K44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2252,21 +2252,21 @@
       <c r="F45">
         <v>14</v>
       </c>
-      <c r="G45" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H45" s="5"/>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H45" s="4"/>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>229</v>
       </c>
       <c r="K45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="L45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2289,21 +2289,21 @@
       <c r="F46">
         <v>14</v>
       </c>
-      <c r="G46" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H46" s="5"/>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H46" s="4"/>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>229</v>
       </c>
       <c r="K46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="L46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2326,21 +2326,21 @@
       <c r="F47">
         <v>15</v>
       </c>
-      <c r="G47" s="7">
-        <f t="shared" si="3"/>
+      <c r="G47" s="3">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H47" s="5"/>
+      <c r="H47" s="4"/>
       <c r="J47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>229</v>
       </c>
       <c r="K47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2363,21 +2363,21 @@
       <c r="F48">
         <v>14</v>
       </c>
-      <c r="G48" s="7">
-        <f t="shared" si="3"/>
+      <c r="G48" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H48" s="5"/>
+      <c r="H48" s="4"/>
       <c r="J48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>230</v>
       </c>
       <c r="K48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="L48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2400,21 +2400,21 @@
       <c r="F49">
         <v>14</v>
       </c>
-      <c r="G49" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H49" s="5"/>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H49" s="4"/>
       <c r="J49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>231</v>
       </c>
       <c r="K49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="L49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2437,21 +2437,21 @@
       <c r="F50">
         <v>13</v>
       </c>
-      <c r="G50" s="7">
-        <f t="shared" si="3"/>
+      <c r="G50" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H50" s="5"/>
+      <c r="H50" s="4"/>
       <c r="J50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>232</v>
       </c>
       <c r="K50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="L50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2474,21 +2474,21 @@
       <c r="F51">
         <v>13</v>
       </c>
-      <c r="G51" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H51" s="5"/>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H51" s="4"/>
       <c r="J51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>233</v>
       </c>
       <c r="K51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="L51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2511,21 +2511,21 @@
       <c r="F52">
         <v>12</v>
       </c>
-      <c r="G52" s="7">
-        <f t="shared" si="3"/>
+      <c r="G52" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H52" s="5"/>
+      <c r="H52" s="4"/>
       <c r="J52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>234</v>
       </c>
       <c r="K52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="L52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2548,21 +2548,21 @@
       <c r="F53">
         <v>12</v>
       </c>
-      <c r="G53" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H53" s="5"/>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H53" s="4"/>
       <c r="J53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>235</v>
       </c>
       <c r="K53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="L53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2585,21 +2585,21 @@
       <c r="F54">
         <v>11</v>
       </c>
-      <c r="G54" s="7">
-        <f t="shared" si="3"/>
+      <c r="G54" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H54" s="5"/>
+      <c r="H54" s="4"/>
       <c r="J54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>236</v>
       </c>
       <c r="K54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="L54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2622,21 +2622,21 @@
       <c r="F55">
         <v>12</v>
       </c>
-      <c r="G55" s="7">
-        <f t="shared" si="3"/>
+      <c r="G55" s="3">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H55" s="5"/>
+      <c r="H55" s="4"/>
       <c r="J55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>236</v>
       </c>
       <c r="K55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="L55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2659,21 +2659,21 @@
       <c r="F56">
         <v>12</v>
       </c>
-      <c r="G56" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H56" s="5"/>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H56" s="4"/>
       <c r="J56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>236</v>
       </c>
       <c r="K56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="L56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2696,21 +2696,21 @@
       <c r="F57">
         <v>13</v>
       </c>
-      <c r="G57" s="7">
-        <f t="shared" si="3"/>
+      <c r="G57" s="3">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H57" s="5"/>
+      <c r="H57" s="4"/>
       <c r="J57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>236</v>
       </c>
       <c r="K57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="L57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2733,21 +2733,21 @@
       <c r="F58">
         <v>12</v>
       </c>
-      <c r="G58" s="7">
-        <f t="shared" si="3"/>
+      <c r="G58" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H58" s="5"/>
+      <c r="H58" s="4"/>
       <c r="J58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>237</v>
       </c>
       <c r="K58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="L58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2770,21 +2770,21 @@
       <c r="F59">
         <v>12</v>
       </c>
-      <c r="G59" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H59" s="5"/>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H59" s="4"/>
       <c r="J59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>238</v>
       </c>
       <c r="K59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="L59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2807,21 +2807,21 @@
       <c r="F60">
         <v>12</v>
       </c>
-      <c r="G60" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H60" s="5"/>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H60" s="4"/>
       <c r="J60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>238</v>
       </c>
       <c r="K60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="L60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2844,21 +2844,21 @@
       <c r="F61">
         <v>13</v>
       </c>
-      <c r="G61" s="7">
-        <f t="shared" si="3"/>
+      <c r="G61" s="3">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H61" s="5"/>
+      <c r="H61" s="4"/>
       <c r="J61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>238</v>
       </c>
       <c r="K61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="L61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2881,21 +2881,21 @@
       <c r="F62">
         <v>13</v>
       </c>
-      <c r="G62" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H62" s="5"/>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H62" s="4"/>
       <c r="J62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>238</v>
       </c>
       <c r="K62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="L62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2918,21 +2918,21 @@
       <c r="F63">
         <v>13</v>
       </c>
-      <c r="G63" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H63" s="5"/>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H63" s="4"/>
       <c r="J63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>239</v>
       </c>
       <c r="K63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="L63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2955,21 +2955,21 @@
       <c r="F64">
         <v>13</v>
       </c>
-      <c r="G64" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H64" s="5"/>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H64" s="4"/>
       <c r="J64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>239</v>
       </c>
       <c r="K64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="L64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2992,21 +2992,21 @@
       <c r="F65">
         <v>13</v>
       </c>
-      <c r="G65" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H65" s="5"/>
+      <c r="G65" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H65" s="4"/>
       <c r="J65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="K65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="L65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3029,21 +3029,21 @@
       <c r="F66">
         <v>12</v>
       </c>
-      <c r="G66" s="7">
-        <f t="shared" si="3"/>
+      <c r="G66" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H66" s="5"/>
+      <c r="H66" s="4"/>
       <c r="J66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>241</v>
       </c>
       <c r="K66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="L66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3066,21 +3066,21 @@
       <c r="F67">
         <v>12</v>
       </c>
-      <c r="G67" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H67" s="5"/>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H67" s="4"/>
       <c r="J67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>242</v>
       </c>
       <c r="K67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="L67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3103,21 +3103,21 @@
       <c r="F68">
         <v>11</v>
       </c>
-      <c r="G68" s="7">
-        <f t="shared" si="3"/>
+      <c r="G68" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H68" s="5"/>
+      <c r="H68" s="4"/>
       <c r="J68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>243</v>
       </c>
       <c r="K68">
-        <f t="shared" ref="K68:K131" si="4">ROUND(A68*I$3,0) -J68</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="L68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3140,21 +3140,21 @@
       <c r="F69">
         <v>11</v>
       </c>
-      <c r="G69" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H69" s="5"/>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H69" s="4"/>
       <c r="J69">
-        <f t="shared" ref="J69:J132" si="5">IF(E69="DEM",J68+1, J68)</f>
+        <f t="shared" si="5"/>
         <v>244</v>
       </c>
       <c r="K69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="L69">
-        <f t="shared" ref="L69:L132" si="6">K69-F69</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3177,21 +3177,21 @@
       <c r="F70">
         <v>10</v>
       </c>
-      <c r="G70" s="7">
-        <f t="shared" ref="G70:G133" si="7">IF((F70-F69)&lt;&gt;0,F70-F69,"")</f>
+      <c r="G70" s="3">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="H70" s="5"/>
+      <c r="H70" s="4"/>
       <c r="J70">
         <f t="shared" si="5"/>
         <v>245</v>
       </c>
       <c r="K70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="L70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3214,21 +3214,21 @@
       <c r="F71">
         <v>10</v>
       </c>
-      <c r="G71" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H71" s="5"/>
+      <c r="G71" s="3" t="str">
+        <f t="shared" ref="G71:G134" si="8">IF((F71-F70)&lt;&gt;0,F71-F70,"")</f>
+        <v/>
+      </c>
+      <c r="H71" s="4"/>
       <c r="J71">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J71:J134" si="9">IF(E71="DEM",J70+1, J70)</f>
         <v>246</v>
       </c>
       <c r="K71">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K71:K134" si="10">ROUND(A71*I$3,0) -J71</f>
         <v>10</v>
       </c>
       <c r="L71">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="L71:L134" si="11">K71-F71</f>
         <v>0</v>
       </c>
     </row>
@@ -3251,21 +3251,21 @@
       <c r="F72">
         <v>10</v>
       </c>
-      <c r="G72" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H72" s="5"/>
+      <c r="G72" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H72" s="4"/>
       <c r="J72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>246</v>
       </c>
       <c r="K72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3288,21 +3288,21 @@
       <c r="F73">
         <v>10</v>
       </c>
-      <c r="G73" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H73" s="5"/>
+      <c r="G73" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H73" s="4"/>
       <c r="J73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>247</v>
       </c>
       <c r="K73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3325,21 +3325,21 @@
       <c r="F74">
         <v>10</v>
       </c>
-      <c r="G74" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H74" s="5"/>
+      <c r="G74" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H74" s="4"/>
       <c r="J74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>247</v>
       </c>
       <c r="K74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3362,21 +3362,21 @@
       <c r="F75">
         <v>11</v>
       </c>
-      <c r="G75" s="7">
-        <f t="shared" si="7"/>
+      <c r="G75" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H75" s="5"/>
+      <c r="H75" s="4"/>
       <c r="J75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>247</v>
       </c>
       <c r="K75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="L75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3399,21 +3399,21 @@
       <c r="F76">
         <v>10</v>
       </c>
-      <c r="G76" s="7">
-        <f t="shared" si="7"/>
+      <c r="G76" s="3">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="H76" s="5"/>
+      <c r="H76" s="4"/>
       <c r="J76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>248</v>
       </c>
       <c r="K76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3436,21 +3436,21 @@
       <c r="F77">
         <v>10</v>
       </c>
-      <c r="G77" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H77" s="5"/>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H77" s="4"/>
       <c r="J77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>249</v>
       </c>
       <c r="K77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3473,21 +3473,21 @@
       <c r="F78">
         <v>9</v>
       </c>
-      <c r="G78" s="7">
-        <f t="shared" si="7"/>
+      <c r="G78" s="3">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="H78" s="5"/>
+      <c r="H78" s="4"/>
       <c r="J78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>250</v>
       </c>
       <c r="K78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="L78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3510,21 +3510,21 @@
       <c r="F79">
         <v>10</v>
       </c>
-      <c r="G79" s="7">
-        <f t="shared" si="7"/>
+      <c r="G79" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H79" s="5"/>
+      <c r="H79" s="4"/>
       <c r="J79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>250</v>
       </c>
       <c r="K79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3547,21 +3547,21 @@
       <c r="F80">
         <v>10</v>
       </c>
-      <c r="G80" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H80" s="5"/>
+      <c r="G80" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H80" s="4"/>
       <c r="J80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>250</v>
       </c>
       <c r="K80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3584,21 +3584,21 @@
       <c r="F81">
         <v>11</v>
       </c>
-      <c r="G81" s="7">
-        <f t="shared" si="7"/>
+      <c r="G81" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H81" s="5"/>
+      <c r="H81" s="4"/>
       <c r="J81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>250</v>
       </c>
       <c r="K81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="L81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3621,21 +3621,21 @@
       <c r="F82">
         <v>10</v>
       </c>
-      <c r="G82" s="7">
-        <f t="shared" si="7"/>
+      <c r="G82" s="3">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="H82" s="5"/>
+      <c r="H82" s="4"/>
       <c r="J82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>251</v>
       </c>
       <c r="K82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3658,21 +3658,21 @@
       <c r="F83">
         <v>10</v>
       </c>
-      <c r="G83" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H83" s="5"/>
+      <c r="G83" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H83" s="4"/>
       <c r="J83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>252</v>
       </c>
       <c r="K83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3695,21 +3695,21 @@
       <c r="F84">
         <v>9</v>
       </c>
-      <c r="G84" s="7">
-        <f t="shared" si="7"/>
+      <c r="G84" s="3">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="H84" s="5"/>
+      <c r="H84" s="4"/>
       <c r="J84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>253</v>
       </c>
       <c r="K84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="L84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3732,21 +3732,21 @@
       <c r="F85">
         <v>10</v>
       </c>
-      <c r="G85" s="7">
-        <f t="shared" si="7"/>
+      <c r="G85" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H85" s="5"/>
+      <c r="H85" s="4"/>
       <c r="J85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>253</v>
       </c>
       <c r="K85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3769,21 +3769,21 @@
       <c r="F86">
         <v>10</v>
       </c>
-      <c r="G86" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H86" s="5"/>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H86" s="4"/>
       <c r="J86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>253</v>
       </c>
       <c r="K86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3806,21 +3806,21 @@
       <c r="F87">
         <v>11</v>
       </c>
-      <c r="G87" s="7">
-        <f t="shared" si="7"/>
+      <c r="G87" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H87" s="5"/>
+      <c r="H87" s="4"/>
       <c r="J87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>253</v>
       </c>
       <c r="K87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="L87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3843,21 +3843,21 @@
       <c r="F88">
         <v>11</v>
       </c>
-      <c r="G88" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H88" s="5"/>
+      <c r="G88" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H88" s="4"/>
       <c r="J88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>253</v>
       </c>
       <c r="K88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="L88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3880,21 +3880,21 @@
       <c r="F89">
         <v>11</v>
       </c>
-      <c r="G89" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H89" s="5"/>
+      <c r="G89" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H89" s="4"/>
       <c r="J89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>254</v>
       </c>
       <c r="K89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="L89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3917,21 +3917,21 @@
       <c r="F90">
         <v>11</v>
       </c>
-      <c r="G90" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H90" s="5"/>
+      <c r="G90" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H90" s="4"/>
       <c r="J90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>254</v>
       </c>
       <c r="K90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="L90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3954,21 +3954,21 @@
       <c r="F91">
         <v>12</v>
       </c>
-      <c r="G91" s="7">
-        <f t="shared" si="7"/>
+      <c r="G91" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H91" s="5"/>
+      <c r="H91" s="4"/>
       <c r="J91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>254</v>
       </c>
       <c r="K91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3991,21 +3991,21 @@
       <c r="F92">
         <v>12</v>
       </c>
-      <c r="G92" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H92" s="5"/>
+      <c r="G92" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H92" s="4"/>
       <c r="J92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>254</v>
       </c>
       <c r="K92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4028,21 +4028,21 @@
       <c r="F93">
         <v>12</v>
       </c>
-      <c r="G93" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H93" s="5"/>
+      <c r="G93" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H93" s="4"/>
       <c r="J93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>255</v>
       </c>
       <c r="K93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4065,21 +4065,21 @@
       <c r="F94">
         <v>11</v>
       </c>
-      <c r="G94" s="7">
-        <f t="shared" si="7"/>
+      <c r="G94" s="3">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="H94" s="5"/>
+      <c r="H94" s="4"/>
       <c r="J94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>256</v>
       </c>
       <c r="K94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="L94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4102,21 +4102,21 @@
       <c r="F95">
         <v>11</v>
       </c>
-      <c r="G95" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H95" s="5"/>
+      <c r="G95" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H95" s="4"/>
       <c r="J95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>257</v>
       </c>
       <c r="K95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="L95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4139,21 +4139,21 @@
       <c r="F96">
         <v>11</v>
       </c>
-      <c r="G96" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H96" s="5"/>
+      <c r="G96" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H96" s="4"/>
       <c r="J96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>257</v>
       </c>
       <c r="K96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="L96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4176,21 +4176,21 @@
       <c r="F97">
         <v>12</v>
       </c>
-      <c r="G97" s="7">
-        <f t="shared" si="7"/>
+      <c r="G97" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H97" s="5"/>
+      <c r="H97" s="4"/>
       <c r="J97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>257</v>
       </c>
       <c r="K97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4213,21 +4213,21 @@
       <c r="F98">
         <v>12</v>
       </c>
-      <c r="G98" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H98" s="5"/>
+      <c r="G98" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H98" s="4"/>
       <c r="J98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>258</v>
       </c>
       <c r="K98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4250,21 +4250,21 @@
       <c r="F99">
         <v>11</v>
       </c>
-      <c r="G99" s="7">
-        <f t="shared" si="7"/>
+      <c r="G99" s="3">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="H99" s="5"/>
+      <c r="H99" s="4"/>
       <c r="J99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>259</v>
       </c>
       <c r="K99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="L99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4287,21 +4287,21 @@
       <c r="F100">
         <v>11</v>
       </c>
-      <c r="G100" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H100" s="5"/>
+      <c r="G100" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H100" s="4"/>
       <c r="J100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>260</v>
       </c>
       <c r="K100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="L100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4324,21 +4324,21 @@
       <c r="F101">
         <v>10</v>
       </c>
-      <c r="G101" s="7">
-        <f t="shared" si="7"/>
+      <c r="G101" s="3">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="H101" s="5"/>
+      <c r="H101" s="4"/>
       <c r="J101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>261</v>
       </c>
       <c r="K101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4361,21 +4361,21 @@
       <c r="F102">
         <v>10</v>
       </c>
-      <c r="G102" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H102" s="5"/>
+      <c r="G102" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H102" s="4"/>
       <c r="J102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>262</v>
       </c>
       <c r="K102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4398,21 +4398,21 @@
       <c r="F103">
         <v>9</v>
       </c>
-      <c r="G103" s="7">
-        <f t="shared" si="7"/>
+      <c r="G103" s="3">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="H103" s="5"/>
+      <c r="H103" s="4"/>
       <c r="J103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>263</v>
       </c>
       <c r="K103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="L103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4435,21 +4435,21 @@
       <c r="F104">
         <v>9</v>
       </c>
-      <c r="G104" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H104" s="5"/>
+      <c r="G104" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H104" s="4"/>
       <c r="J104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>264</v>
       </c>
       <c r="K104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="L104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4472,21 +4472,21 @@
       <c r="F105">
         <v>9</v>
       </c>
-      <c r="G105" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H105" s="5"/>
+      <c r="G105" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H105" s="4"/>
       <c r="J105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>264</v>
       </c>
       <c r="K105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="L105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4509,21 +4509,21 @@
       <c r="F106">
         <v>9</v>
       </c>
-      <c r="G106" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H106" s="5"/>
+      <c r="G106" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H106" s="4"/>
       <c r="J106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>265</v>
       </c>
       <c r="K106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="L106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4546,21 +4546,21 @@
       <c r="F107">
         <v>8</v>
       </c>
-      <c r="G107" s="7">
-        <f t="shared" si="7"/>
+      <c r="G107" s="3">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="H107" s="5"/>
+      <c r="H107" s="4"/>
       <c r="J107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>266</v>
       </c>
       <c r="K107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="L107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4583,21 +4583,21 @@
       <c r="F108">
         <v>9</v>
       </c>
-      <c r="G108" s="7">
-        <f t="shared" si="7"/>
+      <c r="G108" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H108" s="5"/>
+      <c r="H108" s="4"/>
       <c r="J108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>266</v>
       </c>
       <c r="K108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="L108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4620,21 +4620,21 @@
       <c r="F109">
         <v>8</v>
       </c>
-      <c r="G109" s="7">
-        <f t="shared" si="7"/>
+      <c r="G109" s="3">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="H109" s="5"/>
+      <c r="H109" s="4"/>
       <c r="J109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>267</v>
       </c>
       <c r="K109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="L109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4657,21 +4657,21 @@
       <c r="F110">
         <v>8</v>
       </c>
-      <c r="G110" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H110" s="5"/>
+      <c r="G110" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H110" s="4"/>
       <c r="J110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>268</v>
       </c>
       <c r="K110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="L110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4694,21 +4694,21 @@
       <c r="F111">
         <v>8</v>
       </c>
-      <c r="G111" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H111" s="5"/>
+      <c r="G111" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H111" s="4"/>
       <c r="J111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>268</v>
       </c>
       <c r="K111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="L111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4731,21 +4731,21 @@
       <c r="F112">
         <v>8</v>
       </c>
-      <c r="G112" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H112" s="5"/>
+      <c r="G112" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H112" s="4"/>
       <c r="J112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>269</v>
       </c>
       <c r="K112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="L112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4768,21 +4768,21 @@
       <c r="F113">
         <v>7</v>
       </c>
-      <c r="G113" s="7">
-        <f t="shared" si="7"/>
+      <c r="G113" s="3">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="H113" s="5"/>
+      <c r="H113" s="4"/>
       <c r="J113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>270</v>
       </c>
       <c r="K113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="L113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4805,21 +4805,21 @@
       <c r="F114">
         <v>7</v>
       </c>
-      <c r="G114" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H114" s="5"/>
+      <c r="G114" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H114" s="4"/>
       <c r="J114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>271</v>
       </c>
       <c r="K114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="L114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4842,21 +4842,21 @@
       <c r="F115">
         <v>6</v>
       </c>
-      <c r="G115" s="7">
-        <f t="shared" si="7"/>
+      <c r="G115" s="3">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="H115" s="5"/>
+      <c r="H115" s="4"/>
       <c r="J115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>272</v>
       </c>
       <c r="K115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="L115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4879,21 +4879,21 @@
       <c r="F116">
         <v>6</v>
       </c>
-      <c r="G116" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H116" s="5"/>
+      <c r="G116" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H116" s="4"/>
       <c r="J116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>273</v>
       </c>
       <c r="K116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="L116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4916,21 +4916,21 @@
       <c r="F117">
         <v>6</v>
       </c>
-      <c r="G117" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H117" s="5"/>
+      <c r="G117" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H117" s="4"/>
       <c r="J117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>273</v>
       </c>
       <c r="K117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="L117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4953,21 +4953,21 @@
       <c r="F118">
         <v>6</v>
       </c>
-      <c r="G118" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H118" s="5"/>
+      <c r="G118" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H118" s="4"/>
       <c r="J118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>274</v>
       </c>
       <c r="K118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="L118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4990,21 +4990,21 @@
       <c r="F119">
         <v>6</v>
       </c>
-      <c r="G119" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H119" s="5"/>
+      <c r="G119" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H119" s="4"/>
       <c r="J119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>274</v>
       </c>
       <c r="K119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="L119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5027,21 +5027,21 @@
       <c r="F120">
         <v>6</v>
       </c>
-      <c r="G120" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H120" s="5"/>
+      <c r="G120" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H120" s="4"/>
       <c r="J120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>275</v>
       </c>
       <c r="K120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="L120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5064,21 +5064,21 @@
       <c r="F121">
         <v>5</v>
       </c>
-      <c r="G121" s="7">
-        <f t="shared" si="7"/>
+      <c r="G121" s="3">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="H121" s="5"/>
+      <c r="H121" s="4"/>
       <c r="J121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>276</v>
       </c>
       <c r="K121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="L121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5101,21 +5101,21 @@
       <c r="F122">
         <v>6</v>
       </c>
-      <c r="G122" s="7">
-        <f t="shared" si="7"/>
+      <c r="G122" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H122" s="5"/>
+      <c r="H122" s="4"/>
       <c r="J122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>276</v>
       </c>
       <c r="K122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="L122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5138,21 +5138,21 @@
       <c r="F123">
         <v>6</v>
       </c>
-      <c r="G123" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H123" s="5"/>
+      <c r="G123" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H123" s="4"/>
       <c r="J123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>276</v>
       </c>
       <c r="K123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="L123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5175,21 +5175,21 @@
       <c r="F124">
         <v>7</v>
       </c>
-      <c r="G124" s="7">
-        <f t="shared" si="7"/>
+      <c r="G124" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H124" s="5"/>
+      <c r="H124" s="4"/>
       <c r="J124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>276</v>
       </c>
       <c r="K124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="L124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5212,21 +5212,21 @@
       <c r="F125">
         <v>6</v>
       </c>
-      <c r="G125" s="7">
-        <f t="shared" si="7"/>
+      <c r="G125" s="3">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="H125" s="5"/>
+      <c r="H125" s="4"/>
       <c r="J125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>277</v>
       </c>
       <c r="K125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="L125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5249,21 +5249,21 @@
       <c r="F126">
         <v>6</v>
       </c>
-      <c r="G126" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H126" s="5"/>
+      <c r="G126" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H126" s="4"/>
       <c r="J126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>278</v>
       </c>
       <c r="K126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="L126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5286,21 +5286,21 @@
       <c r="F127">
         <v>5</v>
       </c>
-      <c r="G127" s="7">
-        <f t="shared" si="7"/>
+      <c r="G127" s="3">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="H127" s="5"/>
+      <c r="H127" s="4"/>
       <c r="J127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>279</v>
       </c>
       <c r="K127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="L127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5323,21 +5323,21 @@
       <c r="F128">
         <v>5</v>
       </c>
-      <c r="G128" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H128" s="5"/>
+      <c r="G128" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H128" s="4"/>
       <c r="J128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
       <c r="K128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="L128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5360,21 +5360,21 @@
       <c r="F129">
         <v>5</v>
       </c>
-      <c r="G129" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H129" s="5"/>
+      <c r="G129" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H129" s="4"/>
       <c r="J129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
       <c r="K129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="L129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5397,21 +5397,21 @@
       <c r="F130">
         <v>6</v>
       </c>
-      <c r="G130" s="7">
-        <f t="shared" si="7"/>
+      <c r="G130" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H130" s="5"/>
+      <c r="H130" s="4"/>
       <c r="J130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
       <c r="K130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="L130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5434,21 +5434,21 @@
       <c r="F131">
         <v>6</v>
       </c>
-      <c r="G131" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H131" s="5"/>
+      <c r="G131" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H131" s="4"/>
       <c r="J131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
       <c r="K131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="L131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5471,21 +5471,21 @@
       <c r="F132">
         <v>7</v>
       </c>
-      <c r="G132" s="7">
-        <f t="shared" si="7"/>
+      <c r="G132" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H132" s="5"/>
+      <c r="H132" s="4"/>
       <c r="J132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
       <c r="K132">
-        <f t="shared" ref="K132:K168" si="8">ROUND(A132*I$3,0) -J132</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="L132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5508,21 +5508,21 @@
       <c r="F133">
         <v>6</v>
       </c>
-      <c r="G133" s="7">
-        <f t="shared" si="7"/>
+      <c r="G133" s="3">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="H133" s="5"/>
+      <c r="H133" s="4"/>
       <c r="J133">
-        <f t="shared" ref="J133:J168" si="9">IF(E133="DEM",J132+1, J132)</f>
+        <f t="shared" si="9"/>
         <v>281</v>
       </c>
       <c r="K133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="L133">
-        <f t="shared" ref="L133:L168" si="10">K133-F133</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5545,21 +5545,21 @@
       <c r="F134">
         <v>7</v>
       </c>
-      <c r="G134" s="7">
-        <f t="shared" ref="G134:G168" si="11">IF((F134-F133)&lt;&gt;0,F134-F133,"")</f>
+      <c r="G134" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H134" s="5"/>
+      <c r="H134" s="4"/>
       <c r="J134">
         <f t="shared" si="9"/>
         <v>281</v>
       </c>
       <c r="K134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="L134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5582,21 +5582,21 @@
       <c r="F135">
         <v>6</v>
       </c>
-      <c r="G135" s="7">
-        <f t="shared" si="11"/>
+      <c r="G135" s="3">
+        <f t="shared" ref="G135:G170" si="12">IF((F135-F134)&lt;&gt;0,F135-F134,"")</f>
         <v>-1</v>
       </c>
-      <c r="H135" s="5"/>
+      <c r="H135" s="4"/>
       <c r="J135">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J135:J170" si="13">IF(E135="DEM",J134+1, J134)</f>
         <v>282</v>
       </c>
       <c r="K135">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K135:K170" si="14">ROUND(A135*I$3,0) -J135</f>
         <v>6</v>
       </c>
       <c r="L135">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="L135:L170" si="15">K135-F135</f>
         <v>0</v>
       </c>
     </row>
@@ -5619,21 +5619,21 @@
       <c r="F136">
         <v>6</v>
       </c>
-      <c r="G136" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H136" s="5"/>
+      <c r="G136" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H136" s="4"/>
       <c r="J136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>283</v>
       </c>
       <c r="K136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="L136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5656,21 +5656,21 @@
       <c r="F137">
         <v>6</v>
       </c>
-      <c r="G137" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H137" s="5"/>
+      <c r="G137" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H137" s="4"/>
       <c r="J137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>283</v>
       </c>
       <c r="K137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="L137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5693,21 +5693,21 @@
       <c r="F138">
         <v>6</v>
       </c>
-      <c r="G138" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H138" s="5"/>
+      <c r="G138" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H138" s="4"/>
       <c r="J138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>284</v>
       </c>
       <c r="K138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="L138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5730,21 +5730,21 @@
       <c r="F139">
         <v>6</v>
       </c>
-      <c r="G139" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H139" s="5"/>
+      <c r="G139" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H139" s="4"/>
       <c r="J139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>284</v>
       </c>
       <c r="K139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="L139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5767,21 +5767,21 @@
       <c r="F140">
         <v>6</v>
       </c>
-      <c r="G140" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H140" s="5"/>
+      <c r="G140" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H140" s="4"/>
       <c r="J140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>285</v>
       </c>
       <c r="K140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="L140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5804,21 +5804,21 @@
       <c r="F141">
         <v>5</v>
       </c>
-      <c r="G141" s="7">
-        <f t="shared" si="11"/>
+      <c r="G141" s="3">
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="H141" s="5"/>
+      <c r="H141" s="4"/>
       <c r="J141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>286</v>
       </c>
       <c r="K141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5841,21 +5841,21 @@
       <c r="F142">
         <v>5</v>
       </c>
-      <c r="G142" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H142" s="5"/>
+      <c r="G142" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H142" s="4"/>
       <c r="J142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>287</v>
       </c>
       <c r="K142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5878,21 +5878,21 @@
       <c r="F143">
         <v>5</v>
       </c>
-      <c r="G143" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H143" s="5"/>
+      <c r="G143" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H143" s="4"/>
       <c r="J143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>287</v>
       </c>
       <c r="K143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5915,21 +5915,21 @@
       <c r="F144">
         <v>5</v>
       </c>
-      <c r="G144" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H144" s="5"/>
+      <c r="G144" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H144" s="4"/>
       <c r="J144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>288</v>
       </c>
       <c r="K144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5952,21 +5952,21 @@
       <c r="F145">
         <v>5</v>
       </c>
-      <c r="G145" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H145" s="5"/>
+      <c r="G145" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H145" s="4"/>
       <c r="J145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>288</v>
       </c>
       <c r="K145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5989,21 +5989,21 @@
       <c r="F146">
         <v>5</v>
       </c>
-      <c r="G146" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H146" s="5"/>
+      <c r="G146" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H146" s="4"/>
       <c r="J146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>289</v>
       </c>
       <c r="K146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6026,21 +6026,21 @@
       <c r="F147">
         <v>5</v>
       </c>
-      <c r="G147" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H147" s="5"/>
+      <c r="G147" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H147" s="4"/>
       <c r="J147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>289</v>
       </c>
       <c r="K147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6063,21 +6063,21 @@
       <c r="F148">
         <v>5</v>
       </c>
-      <c r="G148" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H148" s="5"/>
+      <c r="G148" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H148" s="4"/>
       <c r="J148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="K148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6100,21 +6100,21 @@
       <c r="F149">
         <v>4</v>
       </c>
-      <c r="G149" s="7">
-        <f t="shared" si="11"/>
+      <c r="G149" s="3">
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="H149" s="5"/>
+      <c r="H149" s="4"/>
       <c r="J149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>291</v>
       </c>
       <c r="K149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="L149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6137,21 +6137,21 @@
       <c r="F150">
         <v>5</v>
       </c>
-      <c r="G150" s="7">
-        <f t="shared" si="11"/>
+      <c r="G150" s="3">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="H150" s="5"/>
+      <c r="H150" s="4"/>
       <c r="J150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>291</v>
       </c>
       <c r="K150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6174,21 +6174,21 @@
       <c r="F151">
         <v>4</v>
       </c>
-      <c r="G151" s="7">
-        <f t="shared" si="11"/>
+      <c r="G151" s="3">
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="H151" s="5"/>
+      <c r="H151" s="4"/>
       <c r="J151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>292</v>
       </c>
       <c r="K151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="L151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6211,21 +6211,21 @@
       <c r="F152">
         <v>4</v>
       </c>
-      <c r="G152" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H152" s="5"/>
+      <c r="G152" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H152" s="4"/>
       <c r="J152">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>293</v>
       </c>
       <c r="K152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="L152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6248,21 +6248,21 @@
       <c r="F153">
         <v>4</v>
       </c>
-      <c r="G153" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H153" s="5"/>
+      <c r="G153" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H153" s="4"/>
       <c r="J153">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>293</v>
       </c>
       <c r="K153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="L153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6285,21 +6285,21 @@
       <c r="F154">
         <v>4</v>
       </c>
-      <c r="G154" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H154" s="5"/>
+      <c r="G154" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H154" s="4"/>
       <c r="J154">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>294</v>
       </c>
       <c r="K154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="L154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6308,13 +6308,13 @@
         <v>587</v>
       </c>
       <c r="B155">
-        <v>528802</v>
+        <v>529687</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>7</v>
@@ -6322,21 +6322,21 @@
       <c r="F155">
         <v>3</v>
       </c>
-      <c r="G155" s="7">
-        <f t="shared" si="11"/>
+      <c r="G155" s="3">
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="H155" s="5"/>
+      <c r="H155" s="4"/>
       <c r="J155">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>295</v>
       </c>
       <c r="K155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6345,13 +6345,13 @@
         <v>588</v>
       </c>
       <c r="B156">
-        <v>526007</v>
+        <v>528802</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D156">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>7</v>
@@ -6359,21 +6359,21 @@
       <c r="F156">
         <v>3</v>
       </c>
-      <c r="G156" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H156" s="5"/>
+      <c r="G156" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H156" s="4"/>
       <c r="J156">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>296</v>
       </c>
       <c r="K156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6382,35 +6382,35 @@
         <v>589</v>
       </c>
       <c r="B157">
-        <v>525192</v>
+        <v>526007</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D157">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F157">
-        <v>4</v>
-      </c>
-      <c r="G157" s="7">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="H157" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="G157" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H157" s="4"/>
       <c r="J157">
-        <f t="shared" si="9"/>
-        <v>296</v>
+        <f t="shared" si="13"/>
+        <v>297</v>
       </c>
       <c r="K157">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="L157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6419,35 +6419,35 @@
         <v>590</v>
       </c>
       <c r="B158">
-        <v>525186</v>
+        <v>525192</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D158">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F158">
         <v>3</v>
       </c>
-      <c r="G158" s="7">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-      <c r="H158" s="5"/>
+      <c r="G158" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H158" s="4"/>
       <c r="J158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>297</v>
       </c>
       <c r="K158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6456,35 +6456,35 @@
         <v>591</v>
       </c>
       <c r="B159">
-        <v>523232</v>
+        <v>525186</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D159">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F159">
-        <v>4</v>
-      </c>
-      <c r="G159" s="7">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="H159" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="G159" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H159" s="4"/>
       <c r="J159">
-        <f t="shared" si="9"/>
-        <v>297</v>
+        <f t="shared" si="13"/>
+        <v>298</v>
       </c>
       <c r="K159">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="L159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6493,35 +6493,35 @@
         <v>592</v>
       </c>
       <c r="B160">
-        <v>522858</v>
+        <v>523232</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D160">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F160">
         <v>3</v>
       </c>
-      <c r="G160" s="7">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-      <c r="H160" s="5"/>
+      <c r="G160" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H160" s="4"/>
       <c r="J160">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>298</v>
       </c>
       <c r="K160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6530,13 +6530,13 @@
         <v>593</v>
       </c>
       <c r="B161">
-        <v>521026</v>
+        <v>522858</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D161">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>7</v>
@@ -6544,21 +6544,21 @@
       <c r="F161">
         <v>3</v>
       </c>
-      <c r="G161" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H161" s="5"/>
+      <c r="G161" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H161" s="4"/>
       <c r="J161">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>299</v>
       </c>
       <c r="K161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6567,35 +6567,35 @@
         <v>594</v>
       </c>
       <c r="B162">
-        <v>520543</v>
+        <v>522278</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D162">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F162">
-        <v>2</v>
-      </c>
-      <c r="G162" s="7">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-      <c r="H162" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="G162" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H162" s="4"/>
       <c r="J162">
-        <f t="shared" si="9"/>
-        <v>300</v>
+        <f t="shared" si="13"/>
+        <v>299</v>
       </c>
       <c r="K162">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="L162">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6604,35 +6604,35 @@
         <v>595</v>
       </c>
       <c r="B163">
-        <v>519900</v>
+        <v>521026</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D163">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F163">
-        <v>2</v>
-      </c>
-      <c r="G163" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H163" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="G163" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H163" s="4"/>
       <c r="J163">
-        <f t="shared" si="9"/>
-        <v>301</v>
+        <f t="shared" si="13"/>
+        <v>300</v>
       </c>
       <c r="K163">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="L163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6641,35 +6641,35 @@
         <v>596</v>
       </c>
       <c r="B164">
-        <v>518834</v>
+        <v>520543</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D164">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F164">
-        <v>1</v>
-      </c>
-      <c r="G164" s="7">
-        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G164" s="3">
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="H164" s="5"/>
+      <c r="H164" s="4"/>
       <c r="J164">
-        <f t="shared" si="9"/>
-        <v>302</v>
+        <f t="shared" si="13"/>
+        <v>301</v>
       </c>
       <c r="K164">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="L164">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6678,35 +6678,35 @@
         <v>597</v>
       </c>
       <c r="B165">
-        <v>517941</v>
+        <v>519900</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D165">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F165">
-        <v>1</v>
-      </c>
-      <c r="G165" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H165" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="G165" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H165" s="4"/>
       <c r="J165">
-        <f t="shared" si="9"/>
-        <v>303</v>
+        <f t="shared" si="13"/>
+        <v>302</v>
       </c>
       <c r="K165">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="L165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6715,35 +6715,35 @@
         <v>598</v>
       </c>
       <c r="B166">
-        <v>517878</v>
+        <v>518834</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D166">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F166">
         <v>1</v>
       </c>
-      <c r="G166" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H166" s="5"/>
+      <c r="G166" s="3">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="H166" s="4"/>
       <c r="J166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>303</v>
       </c>
       <c r="K166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6752,13 +6752,13 @@
         <v>599</v>
       </c>
       <c r="B167">
-        <v>517258</v>
+        <v>517941</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D167">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>7</v>
@@ -6766,21 +6766,21 @@
       <c r="F167">
         <v>1</v>
       </c>
-      <c r="G167" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H167" s="5"/>
+      <c r="G167" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H167" s="4"/>
       <c r="J167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="K167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6789,41 +6789,109 @@
         <v>600</v>
       </c>
       <c r="B168">
-        <v>514292</v>
+        <v>517878</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D168">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F168">
-        <v>0</v>
-      </c>
-      <c r="G168" s="7">
-        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G168" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H168" s="4"/>
+      <c r="J168">
+        <f t="shared" si="13"/>
+        <v>304</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>601</v>
+      </c>
+      <c r="B169">
+        <v>517258</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169">
+        <v>19</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H169" s="4"/>
+      <c r="J169">
+        <f t="shared" si="13"/>
+        <v>305</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>602</v>
+      </c>
+      <c r="B170">
+        <v>515074</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170">
+        <v>73</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170" s="3">
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="H168" s="5"/>
-      <c r="J168">
-        <f t="shared" si="9"/>
-        <v>305</v>
-      </c>
-      <c r="K168">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L168">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H170" s="4"/>
+      <c r="J170">
+        <f t="shared" si="13"/>
+        <v>306</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="L170">
-        <f>SUM(L2:L169)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
